--- a/n of 1/My n of 1/Body Composition/Tape Measurements/Measurements-DGG-2017.xlsx
+++ b/n of 1/My n of 1/Body Composition/Tape Measurements/Measurements-DGG-2017.xlsx
@@ -481,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -601,90 +601,107 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9">
-        <v>150</v>
-      </c>
-      <c r="E9">
-        <v>4</v>
-      </c>
-      <c r="F9">
-        <f>E9*D9</f>
-        <v>600</v>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>43300</v>
+      </c>
+      <c r="B8">
+        <v>33.5</v>
+      </c>
+      <c r="C8">
+        <v>11.5</v>
+      </c>
+      <c r="D8">
+        <v>41</v>
+      </c>
+      <c r="E8">
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="E10">
         <v>4</v>
       </c>
       <c r="F10">
         <f>E10*D10</f>
-        <v>80</v>
+        <v>600</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D11">
-        <f>D9-D10</f>
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F11">
         <f>E11*D11</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12">
+        <f>D10-D11</f>
+        <v>130</v>
+      </c>
+      <c r="E12">
+        <v>9</v>
+      </c>
+      <c r="F12">
+        <f>E12*D12</f>
         <v>1170</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F12">
-        <f>SUM(F9:F11)</f>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <f>SUM(F10:F12)</f>
         <v>1850</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15">
-        <v>144.4</v>
-      </c>
-      <c r="D15">
-        <v>144.4</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C16">
-        <v>15</v>
+        <v>144.4</v>
       </c>
       <c r="D16">
-        <v>20.9</v>
+        <v>144.4</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17">
+        <v>15</v>
+      </c>
+      <c r="D17">
+        <v>20.9</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
         <v>10</v>
       </c>
-      <c r="C17">
-        <f>C15/(1-(C16/100))</f>
+      <c r="C18">
+        <f>C16/(1-(C17/100))</f>
         <v>169.88235294117649</v>
       </c>
-      <c r="D17">
-        <f>D15/(1-(D16/100))</f>
+      <c r="D18">
+        <f>D16/(1-(D17/100))</f>
         <v>182.55372945638433</v>
       </c>
     </row>
